--- a/public/sample_imports/SampleProduct.xlsx
+++ b/public/sample_imports/SampleProduct.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Cloud\vs1coud_dev\public\sample_imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\vs1_cloud_dev\public\sample_imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Tax Code</t>
   </si>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t>Product Type</t>
+  </si>
+  <si>
+    <t>NONINV</t>
+  </si>
+  <si>
+    <t>T-Shirt Large Blue</t>
+  </si>
+  <si>
+    <t>INV</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>T-Shirt Large Yellow</t>
+  </si>
+  <si>
+    <t>TSL - Blue</t>
+  </si>
+  <si>
+    <t>TSL - Yellow</t>
   </si>
 </sst>
 </file>
@@ -896,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +939,7 @@
     <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -946,8 +970,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -974,6 +1001,73 @@
       </c>
       <c r="J2">
         <v>700</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>600</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>700</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>700</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_imports/SampleProduct.xlsx
+++ b/public/sample_imports/SampleProduct.xlsx
@@ -923,7 +923,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,6 +937,7 @@
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -970,7 +971,7 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1072,6 +1073,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>